--- a/Excel/Erddruckbeiwerte.xlsx
+++ b/Excel/Erddruckbeiwerte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremymeile/Documents/_Bauschule/GB Grundbau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremymeile/Documents/Berechnungshilfen/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724436AC-4FFC-EC40-A988-293411EFDB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBE957-E5DA-F14F-A9B8-2318D3830757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28140" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>φ° =</t>
   </si>
@@ -269,6 +269,21 @@
   </si>
   <si>
     <t>Stahl</t>
+  </si>
+  <si>
+    <t>0.5*</t>
+  </si>
+  <si>
+    <t>α°</t>
+  </si>
+  <si>
+    <t>β° (δ°)</t>
+  </si>
+  <si>
+    <t>φ°</t>
+  </si>
+  <si>
+    <t>δ°-Anteil (z. B. 0, φ/3, 2φ/3)</t>
   </si>
 </sst>
 </file>
@@ -617,7 +632,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -643,6 +658,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,10 +1127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942A206-6639-7349-B537-FFA4C1DEA640}">
-  <dimension ref="B4:D9"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="B4:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C25" zoomScale="161" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1179,6 +1198,35 @@
        MATCH(C7, 'aktive Erddruckbeiwert'!B6:B30, 0),
        MATCH(C6, 'aktive Erddruckbeiwert'!E4:AE4, 0) + MATCH(IF(C8="Glatte Wand", "ϕ/3", IF(C8="Normale Wand", "2ϕ/3", "0")), 'aktive Erddruckbeiwert'!E5:AE5, 0) - 1)</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39">
+        <f>0.5 * (8^2) * 20 * 0.296</f>
+        <v>189.44</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40">
+        <f>10 * 8 * 0.296</f>
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41">
+        <f>2 * 5 * 8 * SQRT(0.296)</f>
+        <v>43.524705627953423</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43">
+        <f>D39+D40-D41</f>
+        <v>169.59529437204657</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +1255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D589C8-A9F9-7746-94E4-36EA0E3B0889}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1253,10 +1302,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE30"/>
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1270,10 +1320,10 @@
       </c>
     </row>
     <row r="4" spans="2:31">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1362,8 +1412,8 @@
       </c>
     </row>
     <row r="5" spans="2:31">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1500,7 @@
       </c>
     </row>
     <row r="6" spans="2:31">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>20</v>
       </c>
       <c r="C6" s="3">
@@ -1540,7 +1590,7 @@
       </c>
     </row>
     <row r="7" spans="2:31">
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7">
         <v>10</v>
       </c>
@@ -1627,7 +1677,7 @@
       </c>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8">
         <v>0</v>
       </c>
@@ -1714,7 +1764,7 @@
       </c>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9">
         <v>-10</v>
       </c>
@@ -1801,7 +1851,7 @@
       </c>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="8">
         <v>-20</v>
       </c>
@@ -1889,7 +1939,7 @@
       </c>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>10</v>
       </c>
       <c r="C11" s="3">
@@ -1979,7 +2029,7 @@
       </c>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -2066,7 +2116,7 @@
       </c>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13">
         <v>0</v>
       </c>
@@ -2153,7 +2203,7 @@
       </c>
     </row>
     <row r="14" spans="2:31">
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14">
         <v>-10</v>
       </c>
@@ -2240,7 +2290,7 @@
       </c>
     </row>
     <row r="15" spans="2:31">
-      <c r="B15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="8">
         <v>-20</v>
       </c>
@@ -2328,7 +2378,7 @@
       </c>
     </row>
     <row r="16" spans="2:31">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>0</v>
       </c>
       <c r="C16" s="3">
@@ -2418,7 +2468,7 @@
       </c>
     </row>
     <row r="17" spans="2:31">
-      <c r="B17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17">
         <v>10</v>
       </c>
@@ -2505,7 +2555,7 @@
       </c>
     </row>
     <row r="18" spans="2:31">
-      <c r="B18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18">
         <v>0</v>
       </c>
@@ -2592,7 +2642,7 @@
       </c>
     </row>
     <row r="19" spans="2:31">
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19">
         <v>-10</v>
       </c>
@@ -2679,7 +2729,7 @@
       </c>
     </row>
     <row r="20" spans="2:31">
-      <c r="B20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="8">
         <v>-20</v>
       </c>
@@ -2767,7 +2817,7 @@
       </c>
     </row>
     <row r="21" spans="2:31">
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>-10</v>
       </c>
       <c r="C21" s="3">
@@ -2857,7 +2907,7 @@
       </c>
     </row>
     <row r="22" spans="2:31">
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22">
         <v>10</v>
       </c>
@@ -2944,7 +2994,7 @@
       </c>
     </row>
     <row r="23" spans="2:31">
-      <c r="B23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23">
         <v>0</v>
       </c>
@@ -3031,7 +3081,7 @@
       </c>
     </row>
     <row r="24" spans="2:31">
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24">
         <v>-10</v>
       </c>
@@ -3118,7 +3168,7 @@
       </c>
     </row>
     <row r="25" spans="2:31">
-      <c r="B25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8">
         <v>-20</v>
       </c>
@@ -3206,7 +3256,7 @@
       </c>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>-20</v>
       </c>
       <c r="C26" s="3">
@@ -3296,7 +3346,7 @@
       </c>
     </row>
     <row r="27" spans="2:31">
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="C27">
         <v>10</v>
       </c>
@@ -3383,7 +3433,7 @@
       </c>
     </row>
     <row r="28" spans="2:31">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="C28">
         <v>0</v>
       </c>
@@ -3470,7 +3520,7 @@
       </c>
     </row>
     <row r="29" spans="2:31">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29">
         <v>-10</v>
       </c>
@@ -3557,7 +3607,7 @@
       </c>
     </row>
     <row r="30" spans="2:31">
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="8">
         <v>-20</v>
       </c>
@@ -3644,23 +3694,82 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
+    <row r="34" spans="5:10" ht="18">
+      <c r="E34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="str">
+        <f>TEXT(D1,"0") &amp; D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="18">
+      <c r="E35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" ht="18">
+      <c r="E36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" ht="18">
+      <c r="E37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B26:B30"/>
+  <mergeCells count="11">
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B26:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37" xr:uid="{40FBD659-DFEF-4149-B21A-118027E55B2A}">
+      <formula1>$Q$5:$S$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DB8782-49BD-6C42-BD9F-AC68A449CD31}">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="B2:Y14"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
@@ -3678,10 +3787,10 @@
       </c>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3752,8 +3861,8 @@
       </c>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
@@ -4477,10 +4586,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35441B5A-9248-2346-8BBA-2C962C16E818}">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
